--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H2">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I2">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J2">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52339298607913</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N2">
-        <v>4.52339298607913</v>
+        <v>13.644797</v>
       </c>
       <c r="O2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q2">
-        <v>219.175408693662</v>
+        <v>409.1619323745881</v>
       </c>
       <c r="R2">
-        <v>219.175408693662</v>
+        <v>3682.457391371293</v>
       </c>
       <c r="S2">
-        <v>0.009998645441263504</v>
+        <v>0.01815791044237723</v>
       </c>
       <c r="T2">
-        <v>0.009998645441263504</v>
+        <v>0.01815791044237724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H3">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I3">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J3">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.828098121734167</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N3">
-        <v>0.828098121734167</v>
+        <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q3">
-        <v>40.12446958027027</v>
+        <v>76.84190402682044</v>
       </c>
       <c r="R3">
-        <v>40.12446958027027</v>
+        <v>691.577136241384</v>
       </c>
       <c r="S3">
-        <v>0.001830453275954068</v>
+        <v>0.003410112967849033</v>
       </c>
       <c r="T3">
-        <v>0.001830453275954068</v>
+        <v>0.003410112967849034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H4">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I4">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J4">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.245779115138495</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N4">
-        <v>0.245779115138495</v>
+        <v>0.055439</v>
       </c>
       <c r="O4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q4">
-        <v>11.9089228317391</v>
+        <v>1.662430622376778</v>
       </c>
       <c r="R4">
-        <v>11.9089228317391</v>
+        <v>14.961875601391</v>
       </c>
       <c r="S4">
-        <v>0.0005432776317910446</v>
+        <v>7.377584269043736E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005432776317910446</v>
+        <v>7.377584269043737E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3844.36250207129</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H5">
-        <v>3844.36250207129</v>
+        <v>269.879969</v>
       </c>
       <c r="I5">
-        <v>0.981634808235257</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J5">
-        <v>0.981634808235257</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.52339298607913</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N5">
-        <v>4.52339298607913</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q5">
-        <v>17389.56237781489</v>
+        <v>22.75810817253656</v>
       </c>
       <c r="R5">
-        <v>17389.56237781489</v>
+        <v>204.822973552829</v>
       </c>
       <c r="S5">
-        <v>0.7933009895171423</v>
+        <v>0.001009966121815387</v>
       </c>
       <c r="T5">
-        <v>0.7933009895171423</v>
+        <v>0.001009966121815387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H6">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I6">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J6">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.828098121734167</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N6">
-        <v>0.828098121734167</v>
+        <v>13.644797</v>
       </c>
       <c r="O6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q6">
-        <v>3183.509367230497</v>
+        <v>17545.24572557546</v>
       </c>
       <c r="R6">
-        <v>3183.509367230497</v>
+        <v>157907.2115301792</v>
       </c>
       <c r="S6">
-        <v>0.1452297117254074</v>
+        <v>0.7786281551794909</v>
       </c>
       <c r="T6">
-        <v>0.1452297117254074</v>
+        <v>0.7786281551794912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H7">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J7">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.245779115138495</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N7">
-        <v>0.245779115138495</v>
+        <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q7">
-        <v>944.8640140306923</v>
+        <v>3295.052597750866</v>
       </c>
       <c r="R7">
-        <v>944.8640140306923</v>
+        <v>29655.4733797578</v>
       </c>
       <c r="S7">
-        <v>0.04310410699270712</v>
+        <v>0.1462288283410176</v>
       </c>
       <c r="T7">
-        <v>0.04310410699270712</v>
+        <v>0.1462288283410176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.128936447352119</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H8">
-        <v>0.128936447352119</v>
+        <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>3.292314517760468E-05</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J8">
-        <v>3.292314517760468E-05</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.52339298607913</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N8">
-        <v>4.52339298607913</v>
+        <v>0.055439</v>
       </c>
       <c r="O8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q8">
-        <v>0.5832302216025361</v>
+        <v>71.28657742436022</v>
       </c>
       <c r="R8">
-        <v>0.5832302216025361</v>
+        <v>641.5791968192419</v>
       </c>
       <c r="S8">
-        <v>2.660659893913515E-05</v>
+        <v>0.003163577024634064</v>
       </c>
       <c r="T8">
-        <v>2.660659893913515E-05</v>
+        <v>0.003163577024634065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.128936447352119</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H9">
-        <v>0.128936447352119</v>
+        <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>3.292314517760468E-05</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J9">
-        <v>3.292314517760468E-05</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.828098121734167</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N9">
-        <v>0.828098121734167</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q9">
-        <v>0.1067720298753661</v>
+        <v>975.8889294002664</v>
       </c>
       <c r="R9">
-        <v>0.1067720298753661</v>
+        <v>8783.000364602398</v>
       </c>
       <c r="S9">
-        <v>4.870873407426438E-06</v>
+        <v>0.0433082903849781</v>
       </c>
       <c r="T9">
-        <v>4.870873407426438E-06</v>
+        <v>0.04330829038497813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H10">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I10">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J10">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245779115138495</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N10">
-        <v>0.245779115138495</v>
+        <v>13.644797</v>
       </c>
       <c r="O10">
-        <v>0.04391053233961612</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P10">
-        <v>0.04391053233961612</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q10">
-        <v>0.03168988593930496</v>
+        <v>0.6104742821342222</v>
       </c>
       <c r="R10">
-        <v>0.03168988593930496</v>
+        <v>5.494268539208001</v>
       </c>
       <c r="S10">
-        <v>1.445672831043087E-06</v>
+        <v>2.709181002747702E-05</v>
       </c>
       <c r="T10">
-        <v>1.445672831043087E-06</v>
+        <v>2.709181002747702E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.3406417224581</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H11">
-        <v>23.3406417224581</v>
+        <v>0.402664</v>
       </c>
       <c r="I11">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J11">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.52339298607913</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N11">
-        <v>4.52339298607913</v>
+        <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.8081426848985791</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P11">
-        <v>0.8081426848985791</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q11">
-        <v>105.5788950579529</v>
+        <v>0.1146489995448889</v>
       </c>
       <c r="R11">
-        <v>105.5788950579529</v>
+        <v>1.031840995904</v>
       </c>
       <c r="S11">
-        <v>0.004816443341234043</v>
+        <v>5.087927544878156E-06</v>
       </c>
       <c r="T11">
-        <v>0.004816443341234043</v>
+        <v>5.087927544878158E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.3406417224581</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H12">
-        <v>23.3406417224581</v>
+        <v>0.402664</v>
       </c>
       <c r="I12">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J12">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.828098121734167</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N12">
-        <v>0.828098121734167</v>
+        <v>0.055439</v>
       </c>
       <c r="O12">
-        <v>0.1479467827618047</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P12">
-        <v>0.1479467827618047</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q12">
-        <v>19.32834157043768</v>
+        <v>0.002480365499555556</v>
       </c>
       <c r="R12">
-        <v>19.32834157043768</v>
+        <v>0.022323289496</v>
       </c>
       <c r="S12">
-        <v>0.0008817468870358225</v>
+        <v>1.100744009686108E-07</v>
       </c>
       <c r="T12">
-        <v>0.0008817468870358225</v>
+        <v>1.100744009686109E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1342213333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.402664</v>
+      </c>
+      <c r="I13">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="J13">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P13">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q13">
+        <v>0.03395535764711111</v>
+      </c>
+      <c r="R13">
+        <v>0.3055982188240001</v>
+      </c>
+      <c r="S13">
+        <v>1.506881003364391E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.506881003364392E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.253661</v>
+      </c>
+      <c r="H14">
+        <v>0.760983</v>
+      </c>
+      <c r="I14">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J14">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.644797</v>
+      </c>
+      <c r="O14">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P14">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q14">
+        <v>1.153717617272333</v>
+      </c>
+      <c r="R14">
+        <v>10.383458555451</v>
+      </c>
+      <c r="S14">
+        <v>5.12000250087903E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.120002500879032E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.253661</v>
+      </c>
+      <c r="H15">
+        <v>0.760983</v>
+      </c>
+      <c r="I15">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J15">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N15">
+        <v>2.562536</v>
+      </c>
+      <c r="O15">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P15">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q15">
+        <v>0.2166718147653333</v>
+      </c>
+      <c r="R15">
+        <v>1.950046332888</v>
+      </c>
+      <c r="S15">
+        <v>9.61552651064911E-06</v>
+      </c>
+      <c r="T15">
+        <v>9.615526510649114E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.253661</v>
+      </c>
+      <c r="H16">
+        <v>0.760983</v>
+      </c>
+      <c r="I16">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J16">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.055439</v>
+      </c>
+      <c r="O16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q16">
+        <v>0.004687570726333333</v>
+      </c>
+      <c r="R16">
+        <v>0.042188136537</v>
+      </c>
+      <c r="S16">
+        <v>2.080264137650656E-07</v>
+      </c>
+      <c r="T16">
+        <v>2.080264137650657E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.253661</v>
+      </c>
+      <c r="H17">
+        <v>0.760983</v>
+      </c>
+      <c r="I17">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J17">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P17">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q17">
+        <v>0.06417124433366667</v>
+      </c>
+      <c r="R17">
+        <v>0.577541199003</v>
+      </c>
+      <c r="S17">
+        <v>2.847810647545458E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.847810647545459E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H18">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I18">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J18">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.644797</v>
+      </c>
+      <c r="O18">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P18">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q18">
+        <v>106.9647580815866</v>
+      </c>
+      <c r="R18">
+        <v>962.6828227342792</v>
+      </c>
+      <c r="S18">
+        <v>0.004746913982109796</v>
+      </c>
+      <c r="T18">
+        <v>0.004746913982109798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H19">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I19">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J19">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.562536</v>
+      </c>
+      <c r="O19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q19">
+        <v>20.08831962215022</v>
+      </c>
+      <c r="R19">
+        <v>180.794876599352</v>
+      </c>
+      <c r="S19">
+        <v>0.0008914854481206065</v>
+      </c>
+      <c r="T19">
+        <v>0.0008914854481206068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="H13">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="I13">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="J13">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="N13">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="O13">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="P13">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="Q13">
-        <v>5.73664226931039</v>
-      </c>
-      <c r="R13">
-        <v>5.73664226931039</v>
-      </c>
-      <c r="S13">
-        <v>0.0002617020422869115</v>
-      </c>
-      <c r="T13">
-        <v>0.0002617020422869115</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H20">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I20">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J20">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.055439</v>
+      </c>
+      <c r="O20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q20">
+        <v>0.434599299885889</v>
+      </c>
+      <c r="R20">
+        <v>3.911393698973001</v>
+      </c>
+      <c r="S20">
+        <v>1.928677753536275E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.928677753536275E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H21">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I21">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J21">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P21">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q21">
+        <v>5.949516175520779</v>
+      </c>
+      <c r="R21">
+        <v>53.54564557968701</v>
+      </c>
+      <c r="S21">
+        <v>0.0002640294058238017</v>
+      </c>
+      <c r="T21">
+        <v>0.0002640294058238017</v>
       </c>
     </row>
   </sheetData>
